--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/10/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/10/seed3/result_data_KNN.xlsx
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.136</v>
+        <v>-7.453</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.612</v>
+        <v>-21.846</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.576</v>
+        <v>-21.589</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.953999999999999</v>
+        <v>-8.175000000000001</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.498</v>
+        <v>-22.403</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.042</v>
+        <v>-7.561999999999999</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.498</v>
+        <v>-7.292</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.228</v>
+        <v>-7.178999999999999</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.023</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.004</v>
+        <v>-20.21700000000001</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.81</v>
+        <v>-7.663000000000001</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.286</v>
+        <v>-22.283</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.484</v>
+        <v>-21.534</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1593,7 +1593,7 @@
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-7.07</v>
+        <v>-6.778</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.508</v>
+        <v>-7.753000000000002</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-21.62</v>
+        <v>-20.934</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.33</v>
+        <v>-20.281</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.454000000000001</v>
+        <v>-8.113</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.762</v>
+        <v>-8.030000000000001</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.140000000000001</v>
+        <v>-7.267</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.425999999999998</v>
+        <v>-8.228</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2154,7 +2154,7 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.93</v>
+        <v>-7.987</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.967999999999999</v>
+        <v>-8.142999999999999</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
